--- a/teaching/traditional_assets/database/data/japan/japan_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/japan/japan_insurance_life.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ8"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,106 +591,106 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0338</v>
+        <v>-0.008774999999999998</v>
       </c>
       <c r="E2">
-        <v>0.0551</v>
+        <v>0.102</v>
       </c>
       <c r="F2">
-        <v>0.045</v>
+        <v>0.04185</v>
       </c>
       <c r="G2">
-        <v>0.05101287171160862</v>
+        <v>0.06364508428564568</v>
       </c>
       <c r="H2">
-        <v>0.05101287171160862</v>
+        <v>0.06364508428564568</v>
       </c>
       <c r="I2">
-        <v>0.05815457755632246</v>
+        <v>0.04770714656125215</v>
       </c>
       <c r="J2">
-        <v>0.04392233565650652</v>
+        <v>0.03573736891124991</v>
       </c>
       <c r="K2">
-        <v>8812.799999999999</v>
+        <v>7223.6</v>
       </c>
       <c r="L2">
-        <v>0.0337948579111213</v>
+        <v>0.03125571960717035</v>
       </c>
       <c r="M2">
-        <v>4762.5594</v>
+        <v>2490.2482</v>
       </c>
       <c r="N2">
-        <v>0.05608923524091278</v>
+        <v>0.03685876507321435</v>
       </c>
       <c r="O2">
-        <v>0.5404138752723312</v>
+        <v>0.3447378315521347</v>
       </c>
       <c r="P2">
-        <v>3322.9594</v>
+        <v>2059.7442</v>
       </c>
       <c r="Q2">
-        <v>0.03913489278109631</v>
+        <v>0.03048677139038423</v>
       </c>
       <c r="R2">
-        <v>0.3770605709876544</v>
+        <v>0.2851409546486516</v>
       </c>
       <c r="S2">
-        <v>1439.6</v>
+        <v>430.504</v>
       </c>
       <c r="T2">
-        <v>0.3022744451229312</v>
+        <v>0.17287594063917</v>
       </c>
       <c r="U2">
-        <v>563278.84</v>
+        <v>588013.7</v>
       </c>
       <c r="V2">
-        <v>6.633802690836458</v>
+        <v>8.703332795554891</v>
       </c>
       <c r="W2">
-        <v>0.05729090177459245</v>
+        <v>0.03225469053525477</v>
       </c>
       <c r="X2">
-        <v>0.09203262181555</v>
+        <v>0.08453563542811299</v>
       </c>
       <c r="Y2">
-        <v>-0.03474172004095755</v>
+        <v>-0.05228094489285822</v>
       </c>
       <c r="Z2">
-        <v>-2.605680474301999</v>
+        <v>-1.966555197096035</v>
       </c>
       <c r="AA2">
-        <v>0.1216026521872974</v>
+        <v>0.04305778871942243</v>
       </c>
       <c r="AB2">
-        <v>0.07407232325853631</v>
+        <v>0.05843486618536635</v>
       </c>
       <c r="AC2">
-        <v>0.0511568991558476</v>
+        <v>-0.01246171481555975</v>
       </c>
       <c r="AD2">
-        <v>245404.5</v>
+        <v>296498.3</v>
       </c>
       <c r="AE2">
-        <v>2149.800425370501</v>
+        <v>836.5450375199371</v>
       </c>
       <c r="AF2">
-        <v>247554.3004253705</v>
+        <v>297334.8450375199</v>
       </c>
       <c r="AG2">
-        <v>-315724.5395746295</v>
+        <v>-290678.85496248</v>
       </c>
       <c r="AH2">
-        <v>0.7446032619662726</v>
+        <v>0.8148465259862675</v>
       </c>
       <c r="AI2">
-        <v>0.5259884346206576</v>
+        <v>0.5715841547952124</v>
       </c>
       <c r="AJ2">
-        <v>1.367873476713699</v>
+        <v>1.302809349524161</v>
       </c>
       <c r="AK2">
-        <v>3.40833985215666</v>
+        <v>4.286075193774601</v>
       </c>
       <c r="AL2">
         <v>458.2</v>
@@ -699,16 +699,16 @@
         <v>458.2</v>
       </c>
       <c r="AN2">
-        <v>14.82705679196347</v>
+        <v>23.59876270142038</v>
       </c>
       <c r="AO2">
-        <v>33.18900043649062</v>
+        <v>24.14447839371453</v>
       </c>
       <c r="AP2">
-        <v>-19.07571246203533</v>
+        <v>-23.13558398338256</v>
       </c>
       <c r="AQ2">
-        <v>33.18900043649062</v>
+        <v>24.14447839371453</v>
       </c>
     </row>
     <row r="3">
@@ -728,124 +728,124 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0105</v>
+        <v>0.00455</v>
       </c>
       <c r="E3">
-        <v>-0.0692</v>
+        <v>0.102</v>
       </c>
       <c r="F3">
-        <v>0.0644</v>
+        <v>0.102</v>
       </c>
       <c r="G3">
-        <v>0.1044060274168725</v>
+        <v>0.1146840314025832</v>
       </c>
       <c r="H3">
-        <v>0.1044060274168725</v>
+        <v>0.1146840314025832</v>
       </c>
       <c r="I3">
-        <v>0.1005261701577555</v>
+        <v>0.1341084530379205</v>
       </c>
       <c r="J3">
-        <v>0.07149176107010187</v>
+        <v>0.1118903046303734</v>
       </c>
       <c r="K3">
-        <v>588</v>
+        <v>1385.2</v>
       </c>
       <c r="L3">
-        <v>0.03006549983893482</v>
+        <v>0.06484624063142225</v>
       </c>
       <c r="M3">
-        <v>355.9309</v>
+        <v>246.3008</v>
       </c>
       <c r="N3">
-        <v>0.047992408715819</v>
+        <v>0.03538194564155605</v>
       </c>
       <c r="O3">
-        <v>0.6053246598639456</v>
+        <v>0.1778088362691308</v>
       </c>
       <c r="P3">
-        <v>235.5309</v>
+        <v>246.1968</v>
       </c>
       <c r="Q3">
-        <v>0.03175811714578502</v>
+        <v>0.03536700568867436</v>
       </c>
       <c r="R3">
-        <v>0.4005627551020408</v>
+        <v>0.1777337568582154</v>
       </c>
       <c r="S3">
-        <v>120.4</v>
+        <v>0.1040000000000134</v>
       </c>
       <c r="T3">
-        <v>0.3382679053715201</v>
+        <v>0.0004222479179930127</v>
       </c>
       <c r="U3">
-        <v>7107.9</v>
+        <v>9117</v>
       </c>
       <c r="V3">
-        <v>0.958402998759506</v>
+        <v>1.309687984830202</v>
       </c>
       <c r="W3">
-        <v>0.05690946748998277</v>
+        <v>0.1221419816769392</v>
       </c>
       <c r="X3">
-        <v>0.08297084290083831</v>
+        <v>0.06938471719349035</v>
       </c>
       <c r="Y3">
-        <v>-0.02606137541085554</v>
+        <v>0.05275726448344888</v>
       </c>
       <c r="Z3">
-        <v>3.459428476925248</v>
+        <v>3.977025133105832</v>
       </c>
       <c r="AA3">
-        <v>0.2473206341114462</v>
+        <v>0.444990553665863</v>
       </c>
       <c r="AB3">
-        <v>0.07563198646947368</v>
+        <v>0.06003035270110289</v>
       </c>
       <c r="AC3">
-        <v>0.1716886476419726</v>
+        <v>0.3849602009647601</v>
       </c>
       <c r="AD3">
-        <v>1138.1</v>
+        <v>1535.9</v>
       </c>
       <c r="AE3">
-        <v>0.03266186864408481</v>
+        <v>0.0755106053421718</v>
       </c>
       <c r="AF3">
-        <v>1138.132661868644</v>
+        <v>1535.975510605342</v>
       </c>
       <c r="AG3">
-        <v>-5969.767338131356</v>
+        <v>-7581.024489394658</v>
       </c>
       <c r="AH3">
-        <v>0.1330443996013724</v>
+        <v>0.1807630675261783</v>
       </c>
       <c r="AI3">
-        <v>0.09081280935094542</v>
+        <v>0.1043463360043441</v>
       </c>
       <c r="AJ3">
-        <v>-4.126664284228238</v>
+        <v>12.23092120286913</v>
       </c>
       <c r="AK3">
-        <v>-1.100451886763822</v>
+        <v>-1.35303544965443</v>
       </c>
       <c r="AL3">
-        <v>8.5</v>
+        <v>12.8</v>
       </c>
       <c r="AM3">
-        <v>8.5</v>
+        <v>12.8</v>
       </c>
       <c r="AN3">
-        <v>0.5327118595673992</v>
+        <v>0.5038635333237541</v>
       </c>
       <c r="AO3">
-        <v>231.2941176470588</v>
+        <v>223.8046875</v>
       </c>
       <c r="AP3">
-        <v>-2.794276302504769</v>
+        <v>-2.487012035575429</v>
       </c>
       <c r="AQ3">
-        <v>231.2941176470588</v>
+        <v>223.8046875</v>
       </c>
     </row>
     <row r="4">
@@ -865,124 +865,124 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0243</v>
+        <v>-0.0221</v>
       </c>
       <c r="E4">
-        <v>0.0551</v>
+        <v>-0.311</v>
       </c>
       <c r="F4">
-        <v>-0.12</v>
+        <v>1.046</v>
       </c>
       <c r="G4">
-        <v>0.1216978442607903</v>
+        <v>0.142368299566432</v>
       </c>
       <c r="H4">
-        <v>0.1216978442607903</v>
+        <v>0.142368299566432</v>
       </c>
       <c r="I4">
-        <v>0.15017536476091</v>
+        <v>0.08491085846525136</v>
       </c>
       <c r="J4">
-        <v>0.101505041028682</v>
+        <v>0.04245542923262568</v>
       </c>
       <c r="K4">
-        <v>1854.8</v>
+        <v>227.2</v>
       </c>
       <c r="L4">
-        <v>0.02768444981111349</v>
+        <v>0.003604341073465418</v>
       </c>
       <c r="M4">
-        <v>1002.8969</v>
+        <v>1083.1976</v>
       </c>
       <c r="N4">
-        <v>0.0530097573351798</v>
+        <v>0.06488622123183457</v>
       </c>
       <c r="O4">
-        <v>0.5407035259866293</v>
+        <v>4.767595070422535</v>
       </c>
       <c r="P4">
-        <v>608.7969000000001</v>
+        <v>652.7976</v>
       </c>
       <c r="Q4">
-        <v>0.03217895671570001</v>
+        <v>0.03910419437156309</v>
       </c>
       <c r="R4">
-        <v>0.3282277873625189</v>
+        <v>2.873228873239437</v>
       </c>
       <c r="S4">
-        <v>394.1</v>
+        <v>430.4</v>
       </c>
       <c r="T4">
-        <v>0.39296162945563</v>
+        <v>0.3973420915999075</v>
       </c>
       <c r="U4">
-        <v>10987.6</v>
+        <v>13332.6</v>
       </c>
       <c r="V4">
-        <v>0.5807675840816953</v>
+        <v>0.7986557883765231</v>
       </c>
       <c r="W4">
-        <v>0.05767233605920214</v>
+        <v>0.005677473524281694</v>
       </c>
       <c r="X4">
-        <v>0.09863695750281899</v>
+        <v>0.08453563542811299</v>
       </c>
       <c r="Y4">
-        <v>-0.04096462144361685</v>
+        <v>-0.0788581619038313</v>
       </c>
       <c r="Z4">
-        <v>2.06008378741341</v>
+        <v>1.603698553606659</v>
       </c>
       <c r="AA4">
-        <v>0.2091088893639207</v>
+        <v>0.06808571045311167</v>
       </c>
       <c r="AB4">
-        <v>0.07364540578072333</v>
+        <v>0.05843486618536635</v>
       </c>
       <c r="AC4">
-        <v>0.1354634835831974</v>
+        <v>0.009650844267745318</v>
       </c>
       <c r="AD4">
-        <v>10207.2</v>
+        <v>10610.9</v>
       </c>
       <c r="AE4">
-        <v>108.3296464251509</v>
+        <v>68.6777277851738</v>
       </c>
       <c r="AF4">
-        <v>10315.52964642515</v>
+        <v>10679.57772778517</v>
       </c>
       <c r="AG4">
-        <v>-672.0703535748489</v>
+        <v>-2653.022272214826</v>
       </c>
       <c r="AH4">
-        <v>0.3528530982326485</v>
+        <v>0.3901446812296364</v>
       </c>
       <c r="AI4">
-        <v>0.2049443126232321</v>
+        <v>0.2057370183148601</v>
       </c>
       <c r="AJ4">
-        <v>-0.0368317675039519</v>
+        <v>-0.1889512335890614</v>
       </c>
       <c r="AK4">
-        <v>-0.017081151108756</v>
+        <v>-0.06877341279363366</v>
       </c>
       <c r="AL4">
-        <v>404.8</v>
+        <v>424.6</v>
       </c>
       <c r="AM4">
-        <v>404.8</v>
+        <v>424.6</v>
       </c>
       <c r="AN4">
-        <v>0.9546309026121603</v>
+        <v>1.773537916395059</v>
       </c>
       <c r="AO4">
-        <v>24.85227272727273</v>
+        <v>12.6073951954781</v>
       </c>
       <c r="AP4">
-        <v>-0.06285554591386783</v>
+        <v>-0.4434341660757871</v>
       </c>
       <c r="AQ4">
-        <v>24.85227272727273</v>
+        <v>12.6073951954781</v>
       </c>
     </row>
     <row r="5">
@@ -993,7 +993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sony Financial Holdings Inc. (TSE:8729)</t>
+          <t>Japan Post Insurance Co., Ltd. (TSE:7181)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1002,49 +1002,49 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0433</v>
+        <v>-0.109</v>
       </c>
       <c r="E5">
-        <v>0.06849999999999999</v>
+        <v>0.163</v>
       </c>
       <c r="F5">
-        <v>0.07099999999999999</v>
+        <v>-0.0183</v>
       </c>
       <c r="G5">
-        <v>0.06527566707322641</v>
+        <v>0.08840902825545263</v>
       </c>
       <c r="H5">
-        <v>0.06527566707322641</v>
+        <v>0.08840902825545263</v>
       </c>
       <c r="I5">
-        <v>0.0769322379491755</v>
+        <v>0.07619155049001346</v>
       </c>
       <c r="J5">
-        <v>0.05395024005547109</v>
+        <v>0.05190081119954614</v>
       </c>
       <c r="K5">
-        <v>654.6</v>
+        <v>1593.3</v>
       </c>
       <c r="L5">
-        <v>0.04269529542979018</v>
+        <v>0.04264413439071588</v>
       </c>
       <c r="M5">
-        <v>251.43</v>
+        <v>202.464</v>
       </c>
       <c r="N5">
-        <v>0.023937507140409</v>
+        <v>0.01759149202377228</v>
       </c>
       <c r="O5">
-        <v>0.3840971585701191</v>
+        <v>0.1270721144793824</v>
       </c>
       <c r="P5">
-        <v>251.43</v>
+        <v>202.464</v>
       </c>
       <c r="Q5">
-        <v>0.023937507140409</v>
+        <v>0.01759149202377228</v>
       </c>
       <c r="R5">
-        <v>0.3840971585701191</v>
+        <v>0.1270721144793824</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1053,73 +1053,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>4159</v>
+        <v>12731.7</v>
       </c>
       <c r="V5">
-        <v>0.3959594805590464</v>
+        <v>1.106219372328224</v>
       </c>
       <c r="W5">
-        <v>0.1204327188431394</v>
+        <v>0.0768822470673956</v>
       </c>
       <c r="X5">
-        <v>0.08542828612828102</v>
+        <v>0.1843337013105319</v>
       </c>
       <c r="Y5">
-        <v>0.03500443271485841</v>
+        <v>-0.1074514542431363</v>
       </c>
       <c r="Z5">
-        <v>3.76334086442364</v>
+        <v>0.8296168734988666</v>
       </c>
       <c r="AA5">
-        <v>0.2030331430462195</v>
+        <v>0.04305778871942243</v>
       </c>
       <c r="AB5">
-        <v>0.0744992407363493</v>
+        <v>0.05551950353498218</v>
       </c>
       <c r="AC5">
-        <v>0.1285339023098702</v>
+        <v>-0.01246171481555975</v>
       </c>
       <c r="AD5">
-        <v>2072</v>
+        <v>38770.4</v>
       </c>
       <c r="AE5">
-        <v>185.4131049351809</v>
+        <v>363.3897825338718</v>
       </c>
       <c r="AF5">
-        <v>2257.413104935181</v>
+        <v>39133.78978253387</v>
       </c>
       <c r="AG5">
-        <v>-1901.586895064819</v>
+        <v>26402.08978253387</v>
       </c>
       <c r="AH5">
-        <v>0.1768992074823708</v>
+        <v>0.7727385359864876</v>
       </c>
       <c r="AI5">
-        <v>0.2636175320259379</v>
+        <v>0.623933511331169</v>
       </c>
       <c r="AJ5">
-        <v>-0.2210630083757758</v>
+        <v>0.6964176089492369</v>
       </c>
       <c r="AK5">
-        <v>-0.4317654141063199</v>
+        <v>0.5281538721994697</v>
       </c>
       <c r="AL5">
-        <v>29.9</v>
+        <v>20.8</v>
       </c>
       <c r="AM5">
-        <v>29.9</v>
+        <v>20.8</v>
       </c>
       <c r="AN5">
-        <v>1.54235521810332</v>
+        <v>11.11759814182892</v>
       </c>
       <c r="AO5">
-        <v>39.4247491638796</v>
+        <v>137.7884615384615</v>
       </c>
       <c r="AP5">
-        <v>-1.415503122722063</v>
+        <v>7.570925868876745</v>
       </c>
       <c r="AQ5">
-        <v>39.4247491638796</v>
+        <v>137.7884615384615</v>
       </c>
     </row>
     <row r="6">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Japan Post Insurance Co., Ltd. (TSE:7181)</t>
+          <t>Japan Post Holdings Co., Ltd. (TSE:6178)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1139,118 +1139,112 @@
         </is>
       </c>
       <c r="F6">
-        <v>-0.00502</v>
+        <v>-0.0383</v>
       </c>
       <c r="G6">
-        <v>0.04781937858944225</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.04781937858944225</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.04543097743324141</v>
+        <v>-0.0001582531324241</v>
       </c>
       <c r="J6">
-        <v>0.03106171988192183</v>
+        <v>-0.0001155214202878325</v>
       </c>
       <c r="K6">
-        <v>1184.7</v>
+        <v>4039.8</v>
       </c>
       <c r="L6">
-        <v>0.02672372178636362</v>
+        <v>0.03699630110252604</v>
       </c>
       <c r="M6">
-        <v>1280.3</v>
+        <v>958.2858</v>
       </c>
       <c r="N6">
-        <v>0.1330776346835469</v>
+        <v>0.03046955542978512</v>
       </c>
       <c r="O6">
-        <v>1.080695534734532</v>
+        <v>0.2372111985741868</v>
       </c>
       <c r="P6">
-        <v>355.2</v>
+        <v>958.2858</v>
       </c>
       <c r="Q6">
-        <v>0.03692039040818235</v>
+        <v>0.03046955542978512</v>
       </c>
       <c r="R6">
-        <v>0.2998227399341605</v>
+        <v>0.2372111985741868</v>
       </c>
       <c r="S6">
-        <v>925.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.7225650238225415</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>12148.9</v>
+        <v>552812.1</v>
       </c>
       <c r="V6">
-        <v>1.262787531052834</v>
+        <v>17.57715592071375</v>
       </c>
       <c r="W6">
-        <v>0.06609352509958381</v>
+        <v>0.03225469053525477</v>
       </c>
       <c r="X6">
-        <v>0.2282061243091414</v>
+        <v>0.3441673451806269</v>
       </c>
       <c r="Y6">
-        <v>-0.1621125992095576</v>
+        <v>-0.3119126546453722</v>
       </c>
       <c r="Z6">
-        <v>1.293301255728468</v>
+        <v>-0.5266844763894972</v>
       </c>
       <c r="AA6">
-        <v>0.04017216132837542</v>
+        <v>6.084333875606808e-05</v>
       </c>
       <c r="AB6">
-        <v>0.06639226532655038</v>
+        <v>0.054651587310666</v>
       </c>
       <c r="AC6">
-        <v>-0.02622010399817496</v>
+        <v>-0.05459074397190993</v>
       </c>
       <c r="AD6">
-        <v>36097.7</v>
+        <v>245581.1</v>
       </c>
       <c r="AE6">
-        <v>321.9058350800097</v>
+        <v>404.4020165955494</v>
       </c>
       <c r="AF6">
-        <v>36419.60583508001</v>
+        <v>245985.5020165956</v>
       </c>
       <c r="AG6">
-        <v>24270.70583508001</v>
+        <v>-306826.5979834044</v>
       </c>
       <c r="AH6">
-        <v>0.7910374437028697</v>
+        <v>0.8866384015223848</v>
       </c>
       <c r="AI6">
-        <v>0.6373358670045453</v>
+        <v>0.629637130371933</v>
       </c>
       <c r="AJ6">
-        <v>0.7161315748654519</v>
+        <v>1.114209663261557</v>
       </c>
       <c r="AK6">
-        <v>0.5394136782537913</v>
+        <v>1.892427196284459</v>
       </c>
       <c r="AL6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>16.98235792246895</v>
-      </c>
-      <c r="AO6">
-        <v>135.0266666666667</v>
+        <v>3861.338050314465</v>
       </c>
       <c r="AP6">
-        <v>11.41828464202108</v>
-      </c>
-      <c r="AQ6">
-        <v>135.0266666666667</v>
+        <v>-4824.317578355415</v>
       </c>
     </row>
     <row r="7">
@@ -1261,7 +1255,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Japan Post Holdings Co., Ltd. (TSE:6178)</t>
+          <t>Lifenet Insurance Company (TSE:7157)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1269,101 +1263,98 @@
           <t>Insurance (Life)</t>
         </is>
       </c>
-      <c r="F7">
-        <v>0.045</v>
+      <c r="D7">
+        <v>0.137</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-0.1131363922061596</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>-0.1131363922061596</v>
       </c>
       <c r="I7">
-        <v>-0.0002851068449260801</v>
+        <v>-0.1307353865493401</v>
       </c>
       <c r="J7">
-        <v>-0.0002165514581881661</v>
+        <v>-0.1307353865493401</v>
       </c>
       <c r="K7">
-        <v>4554.5</v>
+        <v>-21.9</v>
       </c>
       <c r="L7">
-        <v>0.03980277330378312</v>
+        <v>-0.1376492771841609</v>
       </c>
       <c r="M7">
-        <v>1872.0016</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.04911984760265436</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>0.4110224173893951</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1872.0016</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.04911984760265436</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>0.4110224173893951</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
-        <v>528865.5</v>
+        <v>20.3</v>
       </c>
       <c r="V7">
-        <v>13.87701418754215</v>
+        <v>0.02143385070214339</v>
       </c>
       <c r="W7">
-        <v>0.03960062881051171</v>
+        <v>-0.2198795180722891</v>
       </c>
       <c r="X7">
-        <v>0.283975407776376</v>
+        <v>0.0614077660836822</v>
       </c>
       <c r="Y7">
-        <v>-0.2443747789658643</v>
+        <v>-0.2812872841559714</v>
       </c>
       <c r="Z7">
-        <v>-0.6475307472352646</v>
+        <v>1.774481374079857</v>
       </c>
       <c r="AA7">
-        <v>0.0001402237275354694</v>
+        <v>-0.2319875083649342</v>
       </c>
       <c r="AB7">
-        <v>0.06576977194470829</v>
+        <v>0.0614077660836822</v>
       </c>
       <c r="AC7">
-        <v>-0.06562954821717282</v>
+        <v>-0.2933952744486164</v>
       </c>
       <c r="AD7">
-        <v>195889.5</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1534.119177061515</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>197423.6191770615</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>-331441.8808229385</v>
+        <v>-20.3</v>
       </c>
       <c r="AH7">
-        <v>0.8381939932492427</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.5773067448384585</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>1.129924564712122</v>
+        <v>-0.02190332326283988</v>
       </c>
       <c r="AK7">
-        <v>1.773440890098685</v>
+        <v>-0.1391363947909527</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1372,132 +1363,10 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>714.4037199124726</v>
+        <v>-0</v>
       </c>
       <c r="AP7">
-        <v>-1208.759594540257</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Lifenet Insurance Company (TSE:7157)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Insurance (Life)</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>0.115</v>
-      </c>
-      <c r="G8">
-        <v>-0.1037441497659907</v>
-      </c>
-      <c r="H8">
-        <v>-0.1037441497659907</v>
-      </c>
-      <c r="I8">
-        <v>-0.1809672386895476</v>
-      </c>
-      <c r="J8">
-        <v>-0.1809672386895476</v>
-      </c>
-      <c r="K8">
-        <v>-23.8</v>
-      </c>
-      <c r="L8">
-        <v>-0.1856474258970359</v>
-      </c>
-      <c r="M8">
-        <v>-0</v>
-      </c>
-      <c r="N8">
-        <v>-0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>-0</v>
-      </c>
-      <c r="Q8">
-        <v>-0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>9.94</v>
-      </c>
-      <c r="V8">
-        <v>0.02926111274654106</v>
-      </c>
-      <c r="W8">
-        <v>-0.2058823529411765</v>
-      </c>
-      <c r="X8">
-        <v>0.07683441128996647</v>
-      </c>
-      <c r="Y8">
-        <v>-0.2827167642311429</v>
-      </c>
-      <c r="Z8">
-        <v>1.202739468993339</v>
-      </c>
-      <c r="AA8">
-        <v>-0.2176564405666573</v>
-      </c>
-      <c r="AB8">
-        <v>0.07683441128996647</v>
-      </c>
-      <c r="AC8">
-        <v>-0.2944908518566238</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>-9.94</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>-0.03014313440077632</v>
-      </c>
-      <c r="AK8">
-        <v>-0.1108632612090118</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>-0</v>
-      </c>
-      <c r="AP8">
-        <v>0.4778846153846154</v>
+        <v>1.134078212290503</v>
       </c>
     </row>
   </sheetData>
